--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Pressure Sensor</t>
+  </si>
+  <si>
+    <t>DAP-1522</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>AXIS M1013</t>
+  </si>
+  <si>
+    <t>IP Camera</t>
   </si>
 </sst>
 </file>
@@ -202,12 +214,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -312,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +343,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,7 +373,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +665,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,17 +680,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -690,7 +716,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -707,12 +733,12 @@
         <f>D3*E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
@@ -724,7 +750,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
@@ -736,7 +762,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -748,7 +774,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -765,12 +791,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -783,12 +809,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -803,12 +829,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
@@ -820,7 +846,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -832,7 +858,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -844,7 +870,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -856,7 +882,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -873,12 +899,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -893,12 +919,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -913,12 +939,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -933,12 +959,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -953,12 +979,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -971,12 +997,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -989,12 +1015,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1007,12 +1033,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1027,36 +1053,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>189</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1065,10 +1107,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2"/>
@@ -1082,7 +1124,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1094,7 +1136,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1106,7 +1148,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1118,7 +1160,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1130,7 +1172,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1142,7 +1184,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1154,7 +1196,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1166,7 +1208,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1178,7 +1220,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="2"/>
@@ -1193,12 +1235,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1213,12 +1255,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -1230,7 +1272,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -1242,7 +1284,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -1254,7 +1296,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -1266,7 +1308,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
@@ -1278,7 +1320,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
@@ -1289,10 +1331,10 @@
         <f>D42*E42</f>
         <v>0</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
@@ -1304,7 +1346,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -1316,7 +1358,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand_000\Documents\Robotics\2015BillOfMaterials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand_000\Robotics\2015BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>IP Camera</t>
+  </si>
+  <si>
+    <t>Motor Plate</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,39 +355,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +679,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,17 +694,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -716,7 +730,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -738,19 +752,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F45" si="0">D4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
@@ -762,7 +782,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -774,7 +794,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -796,7 +816,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -814,7 +834,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -834,7 +854,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
@@ -846,7 +866,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
@@ -858,7 +878,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -870,7 +890,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -882,7 +902,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -904,7 +924,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -924,7 +944,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -944,7 +964,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -964,7 +984,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -984,7 +1004,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1002,7 +1022,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -1020,7 +1040,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1038,7 +1058,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1058,47 +1078,47 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="20">
         <v>1</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="20">
         <v>1</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="21">
         <v>189</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="21">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1110,7 +1130,7 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2"/>
@@ -1124,7 +1144,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1136,7 +1156,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1148,7 +1168,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1160,7 +1180,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1172,7 +1192,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1184,7 +1204,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1196,7 +1216,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1208,7 +1228,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1220,7 +1240,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="2"/>
@@ -1240,7 +1260,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1260,7 +1280,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -1272,7 +1292,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -1284,7 +1304,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -1296,7 +1316,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -1308,7 +1328,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
@@ -1320,7 +1340,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
@@ -1334,7 +1354,7 @@
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
@@ -1346,7 +1366,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -1358,7 +1378,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -128,9 +128,6 @@
     <t>✓</t>
   </si>
   <si>
-    <t>Rev: B</t>
-  </si>
-  <si>
     <t>Jaguar Motor Controllers</t>
   </si>
   <si>
@@ -162,6 +159,27 @@
   </si>
   <si>
     <t>Motor Plate</t>
+  </si>
+  <si>
+    <t>Battery Tray</t>
+  </si>
+  <si>
+    <t>AM-2717</t>
+  </si>
+  <si>
+    <t>AM-0677</t>
+  </si>
+  <si>
+    <t>Mecanum Left</t>
+  </si>
+  <si>
+    <t>AM-0685</t>
+  </si>
+  <si>
+    <t>Mecanum Right</t>
+  </si>
+  <si>
+    <t>Rev: E</t>
   </si>
 </sst>
 </file>
@@ -360,33 +378,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +385,33 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,7 +697,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,17 +712,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -730,7 +748,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -752,10 +770,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8">
         <v>4</v>
@@ -770,19 +788,27 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -794,14 +820,14 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -816,7 +842,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -834,7 +860,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -854,31 +880,47 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>104</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>104</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -890,7 +932,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -902,14 +944,14 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -924,7 +966,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -944,7 +986,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -964,7 +1006,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -984,7 +1026,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1046,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1022,7 +1064,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -1040,7 +1082,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1058,7 +1100,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1078,47 +1120,47 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="20">
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="E24" s="12">
         <v>189</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="12">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
@@ -1130,7 +1172,7 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="2"/>
@@ -1144,7 +1186,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
@@ -1156,7 +1198,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
@@ -1168,7 +1210,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -1180,7 +1222,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -1192,7 +1234,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="4"/>
@@ -1204,7 +1246,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
@@ -1216,7 +1258,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1228,7 +1270,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1240,12 +1282,12 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>38</v>
+      <c r="A35" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1260,12 +1302,12 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1280,7 +1322,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -1292,7 +1334,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -1304,7 +1346,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -1316,7 +1358,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -1328,7 +1370,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
@@ -1340,7 +1382,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
@@ -1354,7 +1396,7 @@
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4"/>
@@ -1366,7 +1408,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -1378,7 +1420,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
@@ -1401,6 +1443,6 @@
     <mergeCell ref="A35:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" blackAndWhite="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand_000\Robotics\2015BillOfMaterials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -179,7 +174,28 @@
     <t>Mecanum Right</t>
   </si>
   <si>
-    <t>Rev: E</t>
+    <t>Lexan</t>
+  </si>
+  <si>
+    <t>Bolts</t>
+  </si>
+  <si>
+    <t>Zipties</t>
+  </si>
+  <si>
+    <t>Talon Motot Controller</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Motor Bracket</t>
+  </si>
+  <si>
+    <t>AM-0734</t>
+  </si>
+  <si>
+    <t>Rev: F</t>
   </si>
 </sst>
 </file>
@@ -189,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +250,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -357,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,6 +438,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,7 +734,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +757,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G1" s="18"/>
     </row>
@@ -771,41 +808,41 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>0.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="12">
         <f t="shared" ref="F4:F45" si="0">D4*E4</f>
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
@@ -881,43 +918,43 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="12">
         <v>104</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <v>104</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -1175,63 +1212,99 @@
       <c r="A26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="B27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>65</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>80</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="4"/>
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
@@ -1243,7 +1316,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -1385,39 +1458,55 @@
       <c r="A42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3">
-        <f>D42*E42</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="6"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="23">
+        <v>120</v>
+      </c>
+      <c r="F42" s="25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="24">
+        <v>20</v>
+      </c>
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="4"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -126,33 +126,18 @@
     <t>Jaguar Motor Controllers</t>
   </si>
   <si>
-    <t>Compressor</t>
-  </si>
-  <si>
     <t>Robot Signal Light</t>
   </si>
   <si>
     <t>Pneumatics</t>
   </si>
   <si>
-    <t>SM-2N-WSR/443</t>
-  </si>
-  <si>
-    <t>Pressure Sensor</t>
-  </si>
-  <si>
     <t>DAP-1522</t>
   </si>
   <si>
     <t>Bridge</t>
   </si>
   <si>
-    <t>AXIS M1013</t>
-  </si>
-  <si>
-    <t>IP Camera</t>
-  </si>
-  <si>
     <t>Motor Plate</t>
   </si>
   <si>
@@ -195,7 +180,16 @@
     <t>AM-0734</t>
   </si>
   <si>
-    <t>Rev: F</t>
+    <t>Rev: L</t>
+  </si>
+  <si>
+    <t>USB Camera</t>
+  </si>
+  <si>
+    <t>Micro Switch</t>
+  </si>
+  <si>
+    <t>Kill Switch</t>
   </si>
 </sst>
 </file>
@@ -261,7 +255,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,13 +264,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +404,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,42 +458,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,17 +765,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="18"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -785,7 +801,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -807,45 +823,45 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="16"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>0.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F45" si="0">D4*E4</f>
         <v>2</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
         <v>25</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -857,7 +873,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -879,7 +895,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -897,7 +913,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -917,47 +933,47 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="A10" s="16"/>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>104</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="A11" s="16"/>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>104</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -969,7 +985,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -981,14 +997,14 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1003,7 +1019,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1039,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1059,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1079,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1099,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1101,7 +1117,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -1119,13 +1135,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
@@ -1137,7 +1153,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1157,181 +1173,193 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="A24" s="16"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
         <v>189</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="34">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="B26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22">
         <v>65</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="22">
+        <v>80</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="21">
+        <v>2</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
-        <v>80</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="4"/>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
@@ -1343,7 +1371,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4"/>
@@ -1355,47 +1383,33 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>37</v>
+      <c r="A35" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
+      <c r="A36" s="18"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4"/>
@@ -1407,7 +1421,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -1419,7 +1433,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -1431,7 +1445,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -1443,7 +1457,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
@@ -1455,61 +1469,63 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="24">
-        <v>1</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="25">
+        <v>1</v>
+      </c>
+      <c r="E42" s="24">
         <v>120</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="26">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="24">
+      <c r="A43" s="11"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="25">
         <v>20</v>
       </c>
-      <c r="E43" s="23">
-        <v>1</v>
-      </c>
-      <c r="F43" s="25">
+      <c r="E43" s="24">
+        <v>1</v>
+      </c>
+      <c r="F43" s="26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="26" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="25">
+        <v>20</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand_000\Robotics\2015BillOfMaterials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -90,9 +95,6 @@
     <t>Circuit Breaker</t>
   </si>
   <si>
-    <t>Pneumatic Control Module</t>
-  </si>
-  <si>
     <t>10 Amp Fuses</t>
   </si>
   <si>
@@ -114,9 +116,6 @@
     <t>CB185-12D</t>
   </si>
   <si>
-    <t>CTRE_PLM_1</t>
-  </si>
-  <si>
     <t>CTRE_VRM_1</t>
   </si>
   <si>
@@ -129,9 +128,6 @@
     <t>Robot Signal Light</t>
   </si>
   <si>
-    <t>Pneumatics</t>
-  </si>
-  <si>
     <t>DAP-1522</t>
   </si>
   <si>
@@ -168,9 +164,6 @@
     <t>Zipties</t>
   </si>
   <si>
-    <t>Talon Motot Controller</t>
-  </si>
-  <si>
     <t>Aluminum</t>
   </si>
   <si>
@@ -180,9 +173,6 @@
     <t>AM-0734</t>
   </si>
   <si>
-    <t>Rev: L</t>
-  </si>
-  <si>
     <t>USB Camera</t>
   </si>
   <si>
@@ -190,13 +180,38 @@
   </si>
   <si>
     <t>Kill Switch</t>
+  </si>
+  <si>
+    <t>Rev: M</t>
+  </si>
+  <si>
+    <t>Talon Motor Controller</t>
+  </si>
+  <si>
+    <t>Washers</t>
+  </si>
+  <si>
+    <t>Dart Actuator</t>
+  </si>
+  <si>
+    <t>Gear Motor</t>
+  </si>
+  <si>
+    <t>Sprocket</t>
+  </si>
+  <si>
+    <t>3d supports</t>
+  </si>
+  <si>
+    <t>Bearings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
@@ -255,7 +270,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,18 +280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,33 +410,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,22 +426,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -739,7 +741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,17 +767,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="15"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -801,7 +803,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -819,14 +821,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8">
         <v>4</v>
@@ -841,12 +843,12 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -861,7 +863,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -873,14 +875,14 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -891,11 +893,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -909,11 +911,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -929,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -953,12 +955,12 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
@@ -973,7 +975,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -985,7 +987,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -996,15 +998,15 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1015,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -1055,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -1075,14 +1077,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1095,11 +1095,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1113,17 +1113,17 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
@@ -1131,17 +1131,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3">
@@ -1149,279 +1151,308 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="33">
-        <v>1</v>
-      </c>
-      <c r="E24" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
         <v>189</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28" t="s">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>65</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>80</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="34">
+        <v>380</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="29">
-        <v>1</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="21">
-        <v>1</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="22">
-        <v>65</v>
-      </c>
-      <c r="F27" s="22">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="22">
-        <v>80</v>
-      </c>
-      <c r="F28" s="22">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="21">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>75</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="29">
-        <v>1</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="29">
-        <v>1</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>20</v>
+      </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -1433,7 +1464,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -1445,7 +1476,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -1457,95 +1488,97 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="25">
-        <v>1</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="16">
+        <v>2</v>
+      </c>
+      <c r="E42" s="15">
         <v>120</v>
       </c>
-      <c r="F42" s="26">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="G42" s="27"/>
+      <c r="F42" s="17">
+        <f>D42*E42</f>
+        <v>240</v>
+      </c>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="16">
         <v>20</v>
       </c>
-      <c r="E43" s="24">
-        <v>1</v>
-      </c>
-      <c r="F43" s="26">
-        <f t="shared" si="0"/>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <f>D43*E43</f>
         <v>20</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="16">
         <v>20</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>33</v>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17">
+        <f>D44*E44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.1</v>
+      </c>
       <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D45*E45</f>
+        <v>5</v>
       </c>
       <c r="G45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" blackAndWhite="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand_000\Robotics\2015BillOfMaterials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -182,9 +177,6 @@
     <t>Kill Switch</t>
   </si>
   <si>
-    <t>Rev: M</t>
-  </si>
-  <si>
     <t>Talon Motor Controller</t>
   </si>
   <si>
@@ -197,13 +189,31 @@
     <t>Gear Motor</t>
   </si>
   <si>
-    <t>Sprocket</t>
-  </si>
-  <si>
-    <t>3d supports</t>
-  </si>
-  <si>
     <t>Bearings</t>
+  </si>
+  <si>
+    <t>Rev: N</t>
+  </si>
+  <si>
+    <t>3D Printed Pillow Block</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Chain Hooks</t>
+  </si>
+  <si>
+    <t>AM-3072</t>
+  </si>
+  <si>
+    <t>AM-0914</t>
+  </si>
+  <si>
+    <t>Top Sprocket</t>
+  </si>
+  <si>
+    <t>Bottom Sprocket</t>
   </si>
 </sst>
 </file>
@@ -270,7 +280,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +290,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +448,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,6 +483,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -453,21 +500,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -741,7 +780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,17 +806,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="23"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -803,7 +842,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -825,7 +864,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>36</v>
@@ -837,13 +876,13 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F45" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F41" si="0">D4*E4</f>
         <v>2</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -863,7 +902,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
@@ -875,7 +914,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -897,7 +936,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -915,7 +954,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -935,7 +974,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
@@ -955,7 +994,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
@@ -975,7 +1014,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -987,7 +1026,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -999,7 +1038,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1021,7 +1060,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1080,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1100,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1120,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1099,7 +1138,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -1117,7 +1156,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -1135,7 +1174,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1194,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="7" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1214,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
         <v>49</v>
@@ -1193,7 +1232,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
         <v>51</v>
@@ -1211,14 +1250,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -1233,12 +1272,12 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="12">
         <v>2</v>
@@ -1253,7 +1292,7 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
         <v>46</v>
@@ -1271,7 +1310,7 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
@@ -1291,7 +1330,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
         <v>47</v>
@@ -1309,7 +1348,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
         <v>16</v>
@@ -1323,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="28"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
         <v>50</v>
@@ -1340,32 +1379,36 @@
         <v>0</v>
       </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="28"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22">
+        <v>380</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="34">
-        <v>380</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1380,7 +1423,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>46</v>
@@ -1398,106 +1441,127 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="4">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="A35" s="39"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="25">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="F35" s="25">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="27">
+        <v>1</v>
+      </c>
+      <c r="E36" s="28">
+        <v>300</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="25">
         <v>20</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
+      <c r="F37" s="25">
+        <f>D37*E37</f>
         <v>20</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <f>D38*E38</f>
+        <v>15</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="D39" s="27">
+        <v>1</v>
+      </c>
+      <c r="E39" s="28">
+        <v>20</v>
+      </c>
+      <c r="F39" s="28">
+        <f>D39*E39</f>
+        <v>20</v>
+      </c>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="4"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="27">
+        <v>8</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="F40" s="28">
+        <f>D40*E40</f>
+        <v>8</v>
+      </c>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="15"/>
@@ -1517,7 +1581,7 @@
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
         <v>44</v>
@@ -1535,7 +1599,7 @@
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
         <v>45</v>
@@ -1553,10 +1617,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="4">
         <v>50</v>
